--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Dchs1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>22.4416696998079</v>
+        <v>16.45387866666666</v>
       </c>
       <c r="H2">
-        <v>22.4416696998079</v>
+        <v>49.361636</v>
       </c>
       <c r="I2">
-        <v>0.8511476326691896</v>
+        <v>0.3833629027898224</v>
       </c>
       <c r="J2">
-        <v>0.8511476326691896</v>
+        <v>0.3833629027898225</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>11.6297777002377</v>
+        <v>7.245879</v>
       </c>
       <c r="N2">
-        <v>11.6297777002377</v>
+        <v>21.737637</v>
       </c>
       <c r="O2">
-        <v>0.9158279124158409</v>
+        <v>0.3603906429235706</v>
       </c>
       <c r="P2">
-        <v>0.9158279124158409</v>
+        <v>0.3603906429235706</v>
       </c>
       <c r="Q2">
-        <v>260.991629830926</v>
+        <v>119.222813899348</v>
       </c>
       <c r="R2">
-        <v>260.991629830926</v>
+        <v>1073.005325094132</v>
       </c>
       <c r="S2">
-        <v>0.7795047595851089</v>
+        <v>0.1381604030094704</v>
       </c>
       <c r="T2">
-        <v>0.7795047595851089</v>
+        <v>0.1381604030094704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>22.4416696998079</v>
+        <v>16.45387866666666</v>
       </c>
       <c r="H3">
-        <v>22.4416696998079</v>
+        <v>49.361636</v>
       </c>
       <c r="I3">
-        <v>0.8511476326691896</v>
+        <v>0.3833629027898224</v>
       </c>
       <c r="J3">
-        <v>0.8511476326691896</v>
+        <v>0.3833629027898225</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.125558626390835</v>
+        <v>11.72919666666667</v>
       </c>
       <c r="N3">
-        <v>0.125558626390835</v>
+        <v>35.18759</v>
       </c>
       <c r="O3">
-        <v>0.009887557411434328</v>
+        <v>0.5833788733812698</v>
       </c>
       <c r="P3">
-        <v>0.009887557411434328</v>
+        <v>0.5833788733812697</v>
       </c>
       <c r="Q3">
-        <v>2.817745221424703</v>
+        <v>192.9907788108044</v>
       </c>
       <c r="R3">
-        <v>2.817745221424703</v>
+        <v>1736.91700929724</v>
       </c>
       <c r="S3">
-        <v>0.008415771083623028</v>
+        <v>0.2236458183256999</v>
       </c>
       <c r="T3">
-        <v>0.008415771083623028</v>
+        <v>0.2236458183256999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>22.4416696998079</v>
+        <v>16.45387866666666</v>
       </c>
       <c r="H4">
-        <v>22.4416696998079</v>
+        <v>49.361636</v>
       </c>
       <c r="I4">
-        <v>0.8511476326691896</v>
+        <v>0.3833629027898224</v>
       </c>
       <c r="J4">
-        <v>0.8511476326691896</v>
+        <v>0.3833629027898225</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.943313215030206</v>
+        <v>0.1386186666666667</v>
       </c>
       <c r="N4">
-        <v>0.943313215030206</v>
+        <v>0.415856</v>
       </c>
       <c r="O4">
-        <v>0.07428453017272475</v>
+        <v>0.006894521755222263</v>
       </c>
       <c r="P4">
-        <v>0.07428453017272475</v>
+        <v>0.006894521755222262</v>
       </c>
       <c r="Q4">
-        <v>21.16952359517175</v>
+        <v>2.280814722268444</v>
       </c>
       <c r="R4">
-        <v>21.16952359517175</v>
+        <v>20.527332500416</v>
       </c>
       <c r="S4">
-        <v>0.06322710200045766</v>
+        <v>0.002643103873429588</v>
       </c>
       <c r="T4">
-        <v>0.06322710200045766</v>
+        <v>0.002643103873429589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.9246959439889</v>
+        <v>16.45387866666666</v>
       </c>
       <c r="H5">
-        <v>3.9246959439889</v>
+        <v>49.361636</v>
       </c>
       <c r="I5">
-        <v>0.1488523673308104</v>
+        <v>0.3833629027898224</v>
       </c>
       <c r="J5">
-        <v>0.1488523673308104</v>
+        <v>0.3833629027898225</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.6297777002377</v>
+        <v>0.9919303333333334</v>
       </c>
       <c r="N5">
-        <v>11.6297777002377</v>
+        <v>2.975791</v>
       </c>
       <c r="O5">
-        <v>0.9158279124158409</v>
+        <v>0.04933596193993741</v>
       </c>
       <c r="P5">
-        <v>0.9158279124158409</v>
+        <v>0.04933596193993741</v>
       </c>
       <c r="Q5">
-        <v>45.64334136961546</v>
+        <v>16.32110135045289</v>
       </c>
       <c r="R5">
-        <v>45.64334136961546</v>
+        <v>146.889912154076</v>
       </c>
       <c r="S5">
-        <v>0.136323152830732</v>
+        <v>0.01891357758122261</v>
       </c>
       <c r="T5">
-        <v>0.136323152830732</v>
+        <v>0.01891357758122261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.9246959439889</v>
+        <v>22.49179166666667</v>
       </c>
       <c r="H6">
-        <v>3.9246959439889</v>
+        <v>67.475375</v>
       </c>
       <c r="I6">
-        <v>0.1488523673308104</v>
+        <v>0.5240416996477147</v>
       </c>
       <c r="J6">
-        <v>0.1488523673308104</v>
+        <v>0.5240416996477147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.125558626390835</v>
+        <v>7.245879</v>
       </c>
       <c r="N6">
-        <v>0.125558626390835</v>
+        <v>21.737637</v>
       </c>
       <c r="O6">
-        <v>0.009887557411434328</v>
+        <v>0.3603906429235706</v>
       </c>
       <c r="P6">
-        <v>0.009887557411434328</v>
+        <v>0.3603906429235706</v>
       </c>
       <c r="Q6">
-        <v>0.4927794317289279</v>
+        <v>162.972800909875</v>
       </c>
       <c r="R6">
-        <v>0.4927794317289279</v>
+        <v>1466.755208188875</v>
       </c>
       <c r="S6">
-        <v>0.001471786327811299</v>
+        <v>0.1888597250548006</v>
       </c>
       <c r="T6">
-        <v>0.001471786327811299</v>
+        <v>0.1888597250548006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.9246959439889</v>
+        <v>22.49179166666667</v>
       </c>
       <c r="H7">
-        <v>3.9246959439889</v>
+        <v>67.475375</v>
       </c>
       <c r="I7">
-        <v>0.1488523673308104</v>
+        <v>0.5240416996477147</v>
       </c>
       <c r="J7">
-        <v>0.1488523673308104</v>
+        <v>0.5240416996477147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.943313215030206</v>
+        <v>11.72919666666667</v>
       </c>
       <c r="N7">
-        <v>0.943313215030206</v>
+        <v>35.18759</v>
       </c>
       <c r="O7">
-        <v>0.07428453017272475</v>
+        <v>0.5833788733812698</v>
       </c>
       <c r="P7">
-        <v>0.07428453017272475</v>
+        <v>0.5833788733812697</v>
       </c>
       <c r="Q7">
-        <v>3.702217548940179</v>
+        <v>263.8106478440278</v>
       </c>
       <c r="R7">
-        <v>3.702217548940179</v>
+        <v>2374.29583059625</v>
       </c>
       <c r="S7">
-        <v>0.01105742817226709</v>
+        <v>0.3057148563452896</v>
       </c>
       <c r="T7">
-        <v>0.01105742817226709</v>
+        <v>0.3057148563452896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>22.49179166666667</v>
+      </c>
+      <c r="H8">
+        <v>67.475375</v>
+      </c>
+      <c r="I8">
+        <v>0.5240416996477147</v>
+      </c>
+      <c r="J8">
+        <v>0.5240416996477147</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1386186666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.415856</v>
+      </c>
+      <c r="O8">
+        <v>0.006894521755222263</v>
+      </c>
+      <c r="P8">
+        <v>0.006894521755222262</v>
+      </c>
+      <c r="Q8">
+        <v>3.117782171777778</v>
+      </c>
+      <c r="R8">
+        <v>28.060039546</v>
+      </c>
+      <c r="S8">
+        <v>0.00361301689886482</v>
+      </c>
+      <c r="T8">
+        <v>0.00361301689886482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.49179166666667</v>
+      </c>
+      <c r="H9">
+        <v>67.475375</v>
+      </c>
+      <c r="I9">
+        <v>0.5240416996477147</v>
+      </c>
+      <c r="J9">
+        <v>0.5240416996477147</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9919303333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.975791</v>
+      </c>
+      <c r="O9">
+        <v>0.04933596193993741</v>
+      </c>
+      <c r="P9">
+        <v>0.04933596193993741</v>
+      </c>
+      <c r="Q9">
+        <v>22.31029040518056</v>
+      </c>
+      <c r="R9">
+        <v>200.792613646625</v>
+      </c>
+      <c r="S9">
+        <v>0.02585410134875976</v>
+      </c>
+      <c r="T9">
+        <v>0.02585410134875976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.03365866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.100976</v>
+      </c>
+      <c r="I10">
+        <v>0.0007842214239435888</v>
+      </c>
+      <c r="J10">
+        <v>0.000784221423943589</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>7.245879</v>
+      </c>
+      <c r="N10">
+        <v>21.737637</v>
+      </c>
+      <c r="O10">
+        <v>0.3603906429235706</v>
+      </c>
+      <c r="P10">
+        <v>0.3603906429235706</v>
+      </c>
+      <c r="Q10">
+        <v>0.243886625968</v>
+      </c>
+      <c r="R10">
+        <v>2.194979633712</v>
+      </c>
+      <c r="S10">
+        <v>0.000282626063169468</v>
+      </c>
+      <c r="T10">
+        <v>0.000282626063169468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.03365866666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.100976</v>
+      </c>
+      <c r="I11">
+        <v>0.0007842214239435888</v>
+      </c>
+      <c r="J11">
+        <v>0.000784221423943589</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.72919666666667</v>
+      </c>
+      <c r="N11">
+        <v>35.18759</v>
+      </c>
+      <c r="O11">
+        <v>0.5833788733812698</v>
+      </c>
+      <c r="P11">
+        <v>0.5833788733812697</v>
+      </c>
+      <c r="Q11">
+        <v>0.3947891208711111</v>
+      </c>
+      <c r="R11">
+        <v>3.55310208784</v>
+      </c>
+      <c r="S11">
+        <v>0.000457498210781666</v>
+      </c>
+      <c r="T11">
+        <v>0.000457498210781666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.03365866666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.100976</v>
+      </c>
+      <c r="I12">
+        <v>0.0007842214239435888</v>
+      </c>
+      <c r="J12">
+        <v>0.000784221423943589</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1386186666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.415856</v>
+      </c>
+      <c r="O12">
+        <v>0.006894521755222263</v>
+      </c>
+      <c r="P12">
+        <v>0.006894521755222262</v>
+      </c>
+      <c r="Q12">
+        <v>0.004665719495111111</v>
+      </c>
+      <c r="R12">
+        <v>0.041991475456</v>
+      </c>
+      <c r="S12">
+        <v>5.406831668290454E-06</v>
+      </c>
+      <c r="T12">
+        <v>5.406831668290455E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.03365866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.100976</v>
+      </c>
+      <c r="I13">
+        <v>0.0007842214239435888</v>
+      </c>
+      <c r="J13">
+        <v>0.000784221423943589</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9919303333333334</v>
+      </c>
+      <c r="N13">
+        <v>2.975791</v>
+      </c>
+      <c r="O13">
+        <v>0.04933596193993741</v>
+      </c>
+      <c r="P13">
+        <v>0.04933596193993741</v>
+      </c>
+      <c r="Q13">
+        <v>0.03338705244622222</v>
+      </c>
+      <c r="R13">
+        <v>0.300483472016</v>
+      </c>
+      <c r="S13">
+        <v>3.869031832416442E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.869031832416443E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.940522</v>
+      </c>
+      <c r="H14">
+        <v>11.821566</v>
+      </c>
+      <c r="I14">
+        <v>0.09181117613851922</v>
+      </c>
+      <c r="J14">
+        <v>0.09181117613851923</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>7.245879</v>
+      </c>
+      <c r="N14">
+        <v>21.737637</v>
+      </c>
+      <c r="O14">
+        <v>0.3603906429235706</v>
+      </c>
+      <c r="P14">
+        <v>0.3603906429235706</v>
+      </c>
+      <c r="Q14">
+        <v>28.552545608838</v>
+      </c>
+      <c r="R14">
+        <v>256.972910479542</v>
+      </c>
+      <c r="S14">
+        <v>0.03308788879613013</v>
+      </c>
+      <c r="T14">
+        <v>0.03308788879613013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.940522</v>
+      </c>
+      <c r="H15">
+        <v>11.821566</v>
+      </c>
+      <c r="I15">
+        <v>0.09181117613851922</v>
+      </c>
+      <c r="J15">
+        <v>0.09181117613851923</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.72919666666667</v>
+      </c>
+      <c r="N15">
+        <v>35.18759</v>
+      </c>
+      <c r="O15">
+        <v>0.5833788733812698</v>
+      </c>
+      <c r="P15">
+        <v>0.5833788733812697</v>
+      </c>
+      <c r="Q15">
+        <v>46.21915750732667</v>
+      </c>
+      <c r="R15">
+        <v>415.97241756594</v>
+      </c>
+      <c r="S15">
+        <v>0.05356070049949866</v>
+      </c>
+      <c r="T15">
+        <v>0.05356070049949866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.940522</v>
+      </c>
+      <c r="H16">
+        <v>11.821566</v>
+      </c>
+      <c r="I16">
+        <v>0.09181117613851922</v>
+      </c>
+      <c r="J16">
+        <v>0.09181117613851923</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1386186666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.415856</v>
+      </c>
+      <c r="O16">
+        <v>0.006894521755222263</v>
+      </c>
+      <c r="P16">
+        <v>0.006894521755222262</v>
+      </c>
+      <c r="Q16">
+        <v>0.5462299056106666</v>
+      </c>
+      <c r="R16">
+        <v>4.916069150496</v>
+      </c>
+      <c r="S16">
+        <v>0.0006329941512595639</v>
+      </c>
+      <c r="T16">
+        <v>0.0006329941512595639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.940522</v>
+      </c>
+      <c r="H17">
+        <v>11.821566</v>
+      </c>
+      <c r="I17">
+        <v>0.09181117613851922</v>
+      </c>
+      <c r="J17">
+        <v>0.09181117613851923</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9919303333333334</v>
+      </c>
+      <c r="N17">
+        <v>2.975791</v>
+      </c>
+      <c r="O17">
+        <v>0.04933596193993741</v>
+      </c>
+      <c r="P17">
+        <v>0.04933596193993741</v>
+      </c>
+      <c r="Q17">
+        <v>3.908723300967333</v>
+      </c>
+      <c r="R17">
+        <v>35.178509708706</v>
+      </c>
+      <c r="S17">
+        <v>0.004529592691630874</v>
+      </c>
+      <c r="T17">
+        <v>0.004529592691630875</v>
       </c>
     </row>
   </sheetData>
